--- a/lectures/Lectures.xlsx
+++ b/lectures/Lectures.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yamen\Documents\GitHub\yamenz.github.io\lectures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\yamenz.github.io\yamenz.github.io\lectures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1445AD-2102-4E3C-93B8-224414C55990}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F379739D-7813-4330-BC9D-5EACFAD5B3B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{65C964AE-DBEF-4EF9-9DB3-29D9D7BB8354}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{65C964AE-DBEF-4EF9-9DB3-29D9D7BB8354}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -393,51 +393,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -446,46 +474,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -825,1092 +816,1094 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF10221-8E8C-4D84-A5B2-A5D3F8BEF3E0}">
   <dimension ref="B1:X48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.06640625" customWidth="1"/>
-    <col min="3" max="3" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.06640625" customWidth="1"/>
-    <col min="7" max="7" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B2" s="27" t="s">
+    <row r="1" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="2:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="29">
+    <row r="3" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="13">
         <f>SUM(U3:W3)</f>
         <v>20</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="14">
         <f>SUM(V7:X7)</f>
         <v>80</v>
       </c>
-      <c r="U3" s="31">
+      <c r="U3" s="15">
         <f>COUNTIFS(K:K, "S", J:J, "&lt;&gt;")</f>
         <v>4</v>
       </c>
-      <c r="V3" s="31">
+      <c r="V3" s="15">
         <f>COUNTIFS(E:E, "S", D:D, "&lt;&gt;")</f>
         <v>3</v>
       </c>
-      <c r="W3" s="31">
+      <c r="W3" s="15">
         <f>COUNTIFS(Q:Q, "S", P:P, "&lt;&gt;")</f>
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B6" s="1" t="s">
+    <row r="5" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B6" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="18" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="24" t="s">
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="O6" s="25" t="s">
+      <c r="O6" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="Q6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="4"/>
-      <c r="S6" s="5" t="s">
+      <c r="R6" s="2"/>
+      <c r="S6" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8" t="s">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B7" s="23"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="8" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="8" t="s">
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="8" t="s">
+      <c r="Q7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R7" s="20"/>
-      <c r="S7" s="10" t="s">
+      <c r="R7" s="10"/>
+      <c r="S7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="V7" s="31">
+      <c r="V7" s="15">
         <f>COUNTIFS(E:E, "", D:D, "&lt;&gt;")</f>
         <v>40</v>
       </c>
-      <c r="W7" s="31">
+      <c r="W7" s="15">
         <f>COUNTIFS(K:K, "", J:J, "&lt;&gt;")</f>
         <v>30</v>
       </c>
-      <c r="X7" s="31">
+      <c r="X7" s="15">
         <f>COUNTIFS(Q:Q, "", P:P, "&lt;&gt;")</f>
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8" t="s">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B8" s="23"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="8" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="20"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="8" t="s">
+      <c r="L8" s="10"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="Q8" s="8" t="s">
+      <c r="Q8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R8" s="20" t="s">
+      <c r="R8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="S8" s="10"/>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8" t="s">
+      <c r="S8" s="6"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B9" s="23"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="8" t="s">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="8" t="s">
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" s="8" t="s">
+      <c r="Q9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R9" s="20" t="s">
+      <c r="R9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="S9" s="10" t="s">
+      <c r="S9" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8" t="s">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B10" s="23"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="8" t="s">
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="8" t="s">
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Q10" s="8" t="s">
+      <c r="Q10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R10" s="20"/>
-      <c r="S10" s="10"/>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8" t="s">
+      <c r="R10" s="10"/>
+      <c r="S10" s="6"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B11" s="23"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10" t="s">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="8" t="s">
+      <c r="H11" s="26"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="8" t="s">
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Q11" s="8" t="s">
+      <c r="Q11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R11" s="20"/>
-      <c r="S11" s="10"/>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8" t="s">
+      <c r="R11" s="10"/>
+      <c r="S11" s="6"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B12" s="23"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="8" t="s">
+      <c r="H12" s="26"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="8" t="s">
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q12" s="8" t="s">
+      <c r="Q12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R12" s="20"/>
-      <c r="S12" s="10"/>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8" t="s">
+      <c r="R12" s="10"/>
+      <c r="S12" s="6"/>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B13" s="23"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10" t="s">
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="8" t="s">
+      <c r="H13" s="26"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="26" t="s">
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="P13" s="8" t="s">
+      <c r="P13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="10"/>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8" t="s">
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="6"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B14" s="23"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10" t="s">
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="8" t="s">
+      <c r="H14" s="26"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="8" t="s">
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="10"/>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8" t="s">
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="6"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B15" s="23"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10" t="s">
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="8" t="s">
+      <c r="H15" s="26"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="8" t="s">
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Q15" s="20" t="s">
+      <c r="Q15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="R15" s="20"/>
-      <c r="S15" s="10"/>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B16" s="6"/>
-      <c r="C16" s="7" t="s">
+      <c r="R15" s="10"/>
+      <c r="S15" s="6"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B16" s="23"/>
+      <c r="C16" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="8" t="s">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="8" t="s">
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="Q16" s="20" t="s">
+      <c r="Q16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="R16" s="20"/>
-      <c r="S16" s="10"/>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8" t="s">
+      <c r="R16" s="10"/>
+      <c r="S16" s="6"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="23"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="8" t="s">
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="8" t="s">
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q17" s="20" t="s">
+      <c r="Q17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="R17" s="20"/>
-      <c r="S17" s="10" t="s">
+      <c r="R17" s="10"/>
+      <c r="S17" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8" t="s">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="23"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="19" t="s">
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="8" t="s">
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="10" t="s">
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8" t="s">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="23"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="8" t="s">
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="8" t="s">
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q19" s="8" t="s">
+      <c r="Q19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R19" s="20" t="s">
+      <c r="R19" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="S19" s="10" t="s">
+      <c r="S19" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8" t="s">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="23"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="10" t="s">
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="8" t="s">
+      <c r="H20" s="26"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="8" t="s">
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Q20" s="8" t="s">
+      <c r="Q20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R20" s="20" t="s">
+      <c r="R20" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="S20" s="10" t="s">
+      <c r="S20" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8" t="s">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="23"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="10" t="s">
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="8" t="s">
+      <c r="H21" s="26"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="8" t="s">
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="10" t="s">
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8" t="s">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="23"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="8" t="s">
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="8" t="s">
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q22" s="8" t="s">
+      <c r="Q22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R22" s="20" t="s">
+      <c r="R22" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="S22" s="10" t="s">
+      <c r="S22" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8" t="s">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="23"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="10" t="s">
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="8" t="s">
+      <c r="H23" s="26"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="K23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L23" s="20"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="8" t="s">
+      <c r="L23" s="10"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20" t="s">
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="S23" s="10" t="s">
+      <c r="S23" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8" t="s">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="23"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="10" t="s">
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="8" t="s">
+      <c r="H24" s="26"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K24" s="8" t="s">
+      <c r="K24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="20"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="8" t="s">
+      <c r="L24" s="10"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20" t="s">
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="S24" s="10"/>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8" t="s">
+      <c r="S24" s="6"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="23"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="8" t="s">
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K25" s="8" t="s">
+      <c r="K25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L25" s="20"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="8" t="s">
+      <c r="L25" s="10"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20" t="s">
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="S25" s="10" t="s">
+      <c r="S25" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8" t="s">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="23"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="19" t="s">
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="J26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="8" t="s">
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20" t="s">
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="S26" s="10"/>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8" t="s">
+      <c r="S26" s="6"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="23"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="10" t="s">
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="16"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="8" t="s">
+      <c r="H27" s="26"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="8" t="s">
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20" t="s">
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="S27" s="10"/>
-    </row>
-    <row r="28" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="6"/>
-      <c r="C28" s="7" t="s">
+      <c r="S27" s="6"/>
+    </row>
+    <row r="28" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="23"/>
+      <c r="C28" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="8" t="s">
+      <c r="F28" s="5"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="13" t="s">
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="15"/>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8" t="s">
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="9"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="23"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="19" t="s">
+      <c r="F29" s="5"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J29" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="10"/>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="8" t="s">
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="6"/>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B30" s="23"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="8" t="s">
+      <c r="F30" s="5"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="10"/>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="8" t="s">
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="6"/>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B31" s="23"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="8" t="s">
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="10"/>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="8" t="s">
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="6"/>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B32" s="23"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="8" t="s">
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="10"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="8" t="s">
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="6"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="23"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="19" t="s">
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="J33" s="8" t="s">
+      <c r="J33" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20" t="s">
+      <c r="K33" s="10"/>
+      <c r="L33" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M33" s="10"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B34" s="6"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="8" t="s">
+      <c r="M33" s="6"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="23"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="8" t="s">
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20" t="s">
+      <c r="K34" s="10"/>
+      <c r="L34" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M34" s="10"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="8" t="s">
+      <c r="M34" s="6"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="23"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="8" t="s">
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20" t="s">
+      <c r="K35" s="10"/>
+      <c r="L35" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M35" s="10"/>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B36" s="6"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="8" t="s">
+      <c r="M35" s="6"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="23"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="8" t="s">
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="10"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B37" s="6"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="8" t="s">
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="6"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="23"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="19" t="s">
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="J37" s="8" t="s">
+      <c r="J37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="10"/>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B38" s="6"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="8" t="s">
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="6"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="23"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="8" t="s">
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="10"/>
-    </row>
-    <row r="39" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B39" s="6"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="8" t="s">
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="6"/>
+    </row>
+    <row r="39" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="23"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="13" t="s">
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="15"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B40" s="6"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="8" t="s">
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="9"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="23"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9" t="s">
+      <c r="E40" s="5"/>
+      <c r="F40" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G40" s="10"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B41" s="6"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="8" t="s">
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="23"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="10"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B42" s="6"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="8" t="s">
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="23"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="10"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B43" s="6"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="8" t="s">
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="23"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9" t="s">
+      <c r="E43" s="5"/>
+      <c r="F43" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G43" s="10"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B44" s="6"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="8" t="s">
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="23"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="10"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B45" s="6"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="8" t="s">
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="23"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9" t="s">
+      <c r="E45" s="5"/>
+      <c r="F45" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G45" s="10"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B46" s="6"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="8" t="s">
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="23"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="10"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B47" s="6"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="8" t="s">
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="23"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9" t="s">
+      <c r="E47" s="5"/>
+      <c r="F47" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="10"/>
-    </row>
-    <row r="48" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B48" s="11"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="13" t="s">
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="24"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="15"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/lectures/Lectures.xlsx
+++ b/lectures/Lectures.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\yamenz.github.io\yamenz.github.io\lectures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yamen\Documents\GitHub\yamenz.github.io\lectures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F379739D-7813-4330-BC9D-5EACFAD5B3B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DC57CD-27E6-4C69-9B28-11A256F7244D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{65C964AE-DBEF-4EF9-9DB3-29D9D7BB8354}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{65C964AE-DBEF-4EF9-9DB3-29D9D7BB8354}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="57">
   <si>
     <t>DCP-B</t>
   </si>
@@ -438,6 +438,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -450,12 +456,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -465,6 +465,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -472,9 +475,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -515,6 +515,103 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>354546</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66757</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>373266</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>69637</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72687FDB-2542-448B-81D2-A17B1A702C99}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="10931265" y="4010703"/>
+            <a:ext cx="18720" cy="2880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72687FDB-2542-448B-81D2-A17B1A702C99}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10922625" y="4002063"/>
+              <a:ext cx="36360" cy="20520"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-01T14:35:22.919"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">52 8 9088,'-16'-4'3424,"13"1"-2656,-9 3-96,8 0-128,0 0-352,-1 0-32,2 0-864,-1 3-320</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -816,23 +913,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF10221-8E8C-4D84-A5B2-A5D3F8BEF3E0}">
   <dimension ref="B1:X48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="42" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.86328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B2" s="11" t="s">
         <v>55</v>
       </c>
@@ -840,14 +937,14 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="13">
         <f>SUM(U3:W3)</f>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C3" s="14">
         <f>SUM(V7:X7)</f>
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="U3" s="15">
         <f>COUNTIFS(K:K, "S", J:J, "&lt;&gt;")</f>
@@ -859,15 +956,15 @@
       </c>
       <c r="W3" s="15">
         <f>COUNTIFS(Q:Q, "S", P:P, "&lt;&gt;")</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B6" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="21" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -876,10 +973,10 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="21" t="s">
         <v>40</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -888,10 +985,10 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="16" t="s">
+      <c r="N6" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="O6" s="21" t="s">
         <v>47</v>
       </c>
       <c r="P6" s="1" t="s">
@@ -905,25 +1002,25 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B7" s="23"/>
-      <c r="C7" s="28"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="20"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="16"/>
       <c r="J7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="20"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="16"/>
       <c r="P7" s="4" t="s">
         <v>26</v>
       </c>
@@ -944,20 +1041,20 @@
       </c>
       <c r="X7" s="15">
         <f>COUNTIFS(Q:Q, "", P:P, "&lt;&gt;")</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B8" s="23"/>
-      <c r="C8" s="28"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="20"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="16"/>
       <c r="J8" s="4" t="s">
         <v>4</v>
       </c>
@@ -966,8 +1063,8 @@
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="20"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="16"/>
       <c r="P8" s="4" t="s">
         <v>27</v>
       </c>
@@ -979,25 +1076,25 @@
       </c>
       <c r="S8" s="6"/>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B9" s="23"/>
-      <c r="C9" s="28"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="20"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="16"/>
       <c r="J9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="6"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="20"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="16"/>
       <c r="P9" s="4" t="s">
         <v>28</v>
       </c>
@@ -1011,25 +1108,25 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B10" s="23"/>
-      <c r="C10" s="28"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="20"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="16"/>
       <c r="J10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="6"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="20"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="16"/>
       <c r="P10" s="4" t="s">
         <v>29</v>
       </c>
@@ -1039,9 +1136,9 @@
       <c r="R10" s="10"/>
       <c r="S10" s="6"/>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B11" s="23"/>
-      <c r="C11" s="28"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1050,16 +1147,16 @@
       <c r="G11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="20"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="16"/>
       <c r="J11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="6"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="20"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="16"/>
       <c r="P11" s="4" t="s">
         <v>31</v>
       </c>
@@ -1069,9 +1166,9 @@
       <c r="R11" s="10"/>
       <c r="S11" s="6"/>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B12" s="23"/>
-      <c r="C12" s="28"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="4" t="s">
         <v>9</v>
       </c>
@@ -1080,16 +1177,16 @@
       <c r="G12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="20"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="16"/>
       <c r="J12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="20"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="16"/>
       <c r="P12" s="4" t="s">
         <v>32</v>
       </c>
@@ -1099,9 +1196,9 @@
       <c r="R12" s="10"/>
       <c r="S12" s="6"/>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B13" s="23"/>
-      <c r="C13" s="28"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="4" t="s">
         <v>10</v>
       </c>
@@ -1110,16 +1207,16 @@
       <c r="G13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="26"/>
-      <c r="I13" s="20"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="16"/>
       <c r="J13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="6"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="20" t="s">
+      <c r="N13" s="19"/>
+      <c r="O13" s="16" t="s">
         <v>50</v>
       </c>
       <c r="P13" s="4" t="s">
@@ -1129,9 +1226,9 @@
       <c r="R13" s="10"/>
       <c r="S13" s="6"/>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B14" s="23"/>
-      <c r="C14" s="28"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="4" t="s">
         <v>11</v>
       </c>
@@ -1140,16 +1237,16 @@
       <c r="G14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="20"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="16"/>
       <c r="J14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="6"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="20"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="16"/>
       <c r="P14" s="4" t="s">
         <v>6</v>
       </c>
@@ -1157,9 +1254,9 @@
       <c r="R14" s="10"/>
       <c r="S14" s="6"/>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B15" s="23"/>
-      <c r="C15" s="28"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="4" t="s">
         <v>12</v>
       </c>
@@ -1168,16 +1265,16 @@
       <c r="G15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="20"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="16"/>
       <c r="J15" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="6"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="20"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="16"/>
       <c r="P15" s="4" t="s">
         <v>7</v>
       </c>
@@ -1187,9 +1284,9 @@
       <c r="R15" s="10"/>
       <c r="S15" s="6"/>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B16" s="23"/>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="25" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -1198,16 +1295,16 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="20"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="16"/>
       <c r="J16" s="4" t="s">
         <v>27</v>
       </c>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="6"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="20"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="16"/>
       <c r="P16" s="4" t="s">
         <v>9</v>
       </c>
@@ -1217,25 +1314,25 @@
       <c r="R16" s="10"/>
       <c r="S16" s="6"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B17" s="23"/>
-      <c r="C17" s="28"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="20"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="16"/>
       <c r="J17" s="4" t="s">
         <v>28</v>
       </c>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
       <c r="M17" s="6"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="20"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="16"/>
       <c r="P17" s="4" t="s">
         <v>10</v>
       </c>
@@ -1247,17 +1344,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B18" s="23"/>
-      <c r="C18" s="28"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="20" t="s">
+      <c r="H18" s="27"/>
+      <c r="I18" s="16" t="s">
         <v>41</v>
       </c>
       <c r="J18" s="4" t="s">
@@ -1266,36 +1363,38 @@
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="20"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="16"/>
       <c r="P18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q18" s="10"/>
+      <c r="Q18" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="R18" s="10"/>
       <c r="S18" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B19" s="23"/>
-      <c r="C19" s="28"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="20"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="16"/>
       <c r="J19" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="20"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="16"/>
       <c r="P19" s="4" t="s">
         <v>28</v>
       </c>
@@ -1309,9 +1408,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B20" s="23"/>
-      <c r="C20" s="28"/>
+      <c r="C20" s="25"/>
       <c r="D20" s="4" t="s">
         <v>15</v>
       </c>
@@ -1320,16 +1419,16 @@
       <c r="G20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="26"/>
-      <c r="I20" s="20"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="16"/>
       <c r="J20" s="4" t="s">
         <v>6</v>
       </c>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
       <c r="M20" s="6"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="20"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="16"/>
       <c r="P20" s="4" t="s">
         <v>29</v>
       </c>
@@ -1343,9 +1442,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B21" s="23"/>
-      <c r="C21" s="28"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="4" t="s">
         <v>17</v>
       </c>
@@ -1354,44 +1453,46 @@
       <c r="G21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="26"/>
-      <c r="I21" s="20"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="16"/>
       <c r="J21" s="4" t="s">
         <v>7</v>
       </c>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
       <c r="M21" s="6"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="20"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="16"/>
       <c r="P21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Q21" s="10"/>
+      <c r="Q21" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="R21" s="10"/>
       <c r="S21" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B22" s="23"/>
-      <c r="C22" s="28"/>
+      <c r="C22" s="25"/>
       <c r="D22" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="20"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="16"/>
       <c r="J22" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="6"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="20"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="16"/>
       <c r="P22" s="4" t="s">
         <v>32</v>
       </c>
@@ -1405,9 +1506,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B23" s="23"/>
-      <c r="C23" s="28"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="4" t="s">
         <v>18</v>
       </c>
@@ -1416,8 +1517,8 @@
       <c r="G23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="26"/>
-      <c r="I23" s="20"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="16"/>
       <c r="J23" s="4" t="s">
         <v>10</v>
       </c>
@@ -1426,12 +1527,14 @@
       </c>
       <c r="L23" s="10"/>
       <c r="M23" s="6"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="20"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="16"/>
       <c r="P23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q23" s="10"/>
+      <c r="Q23" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="R23" s="10" t="s">
         <v>30</v>
       </c>
@@ -1439,9 +1542,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B24" s="23"/>
-      <c r="C24" s="28"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="4" t="s">
         <v>19</v>
       </c>
@@ -1450,8 +1553,8 @@
       <c r="G24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="26"/>
-      <c r="I24" s="20"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="16"/>
       <c r="J24" s="4" t="s">
         <v>11</v>
       </c>
@@ -1460,28 +1563,32 @@
       </c>
       <c r="L24" s="10"/>
       <c r="M24" s="6"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="20"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="16"/>
       <c r="P24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Q24" s="10"/>
+      <c r="Q24" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="R24" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="S24" s="6"/>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="S24" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B25" s="23"/>
-      <c r="C25" s="28"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="20"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="16"/>
       <c r="J25" s="4" t="s">
         <v>26</v>
       </c>
@@ -1490,12 +1597,14 @@
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="6"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="20"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="16"/>
       <c r="P25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q25" s="10"/>
+      <c r="Q25" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="R25" s="10" t="s">
         <v>30</v>
       </c>
@@ -1503,17 +1612,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B26" s="23"/>
-      <c r="C26" s="28"/>
+      <c r="C26" s="25"/>
       <c r="D26" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="20" t="s">
+      <c r="H26" s="27"/>
+      <c r="I26" s="16" t="s">
         <v>42</v>
       </c>
       <c r="J26" s="4" t="s">
@@ -1522,20 +1631,22 @@
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
       <c r="M26" s="6"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="20"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="16"/>
       <c r="P26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="Q26" s="10"/>
+      <c r="Q26" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="R26" s="10" t="s">
         <v>30</v>
       </c>
       <c r="S26" s="6"/>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B27" s="23"/>
-      <c r="C27" s="28"/>
+      <c r="C27" s="25"/>
       <c r="D27" s="4" t="s">
         <v>20</v>
       </c>
@@ -1544,28 +1655,30 @@
       <c r="G27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="26"/>
-      <c r="I27" s="20"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="16"/>
       <c r="J27" s="4" t="s">
         <v>7</v>
       </c>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
       <c r="M27" s="6"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="20"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="16"/>
       <c r="P27" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="Q27" s="10"/>
+      <c r="Q27" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="R27" s="10" t="s">
         <v>30</v>
       </c>
       <c r="S27" s="6"/>
     </row>
-    <row r="28" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="23"/>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="25" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -1576,16 +1689,16 @@
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="20"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="16"/>
       <c r="J28" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
       <c r="M28" s="6"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="21"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="17"/>
       <c r="P28" s="7" t="s">
         <v>38</v>
       </c>
@@ -1593,9 +1706,9 @@
       <c r="R28" s="8"/>
       <c r="S28" s="9"/>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B29" s="23"/>
-      <c r="C29" s="28"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="4" t="s">
         <v>23</v>
       </c>
@@ -1604,8 +1717,8 @@
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="6"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="20" t="s">
+      <c r="H29" s="27"/>
+      <c r="I29" s="16" t="s">
         <v>43</v>
       </c>
       <c r="J29" s="4" t="s">
@@ -1615,9 +1728,9 @@
       <c r="L29" s="10"/>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B30" s="23"/>
-      <c r="C30" s="28"/>
+      <c r="C30" s="25"/>
       <c r="D30" s="4" t="s">
         <v>24</v>
       </c>
@@ -1626,8 +1739,8 @@
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="6"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="20"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="16"/>
       <c r="J30" s="4" t="s">
         <v>7</v>
       </c>
@@ -1635,17 +1748,17 @@
       <c r="L30" s="10"/>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B31" s="23"/>
-      <c r="C31" s="28"/>
+      <c r="C31" s="25"/>
       <c r="D31" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="20"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="16"/>
       <c r="J31" s="4" t="s">
         <v>9</v>
       </c>
@@ -1653,17 +1766,17 @@
       <c r="L31" s="10"/>
       <c r="M31" s="6"/>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B32" s="23"/>
-      <c r="C32" s="28"/>
+      <c r="C32" s="25"/>
       <c r="D32" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="20"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="16"/>
       <c r="J32" s="4" t="s">
         <v>10</v>
       </c>
@@ -1671,17 +1784,17 @@
       <c r="L32" s="10"/>
       <c r="M32" s="6"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B33" s="23"/>
-      <c r="C33" s="28"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="6"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="20" t="s">
+      <c r="H33" s="27"/>
+      <c r="I33" s="16" t="s">
         <v>44</v>
       </c>
       <c r="J33" s="4" t="s">
@@ -1693,17 +1806,17 @@
       </c>
       <c r="M33" s="6"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B34" s="23"/>
-      <c r="C34" s="28"/>
+      <c r="C34" s="25"/>
       <c r="D34" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="20"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="16"/>
       <c r="J34" s="4" t="s">
         <v>7</v>
       </c>
@@ -1713,17 +1826,17 @@
       </c>
       <c r="M34" s="6"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B35" s="23"/>
-      <c r="C35" s="28"/>
+      <c r="C35" s="25"/>
       <c r="D35" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="6"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="20"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="16"/>
       <c r="J35" s="4" t="s">
         <v>9</v>
       </c>
@@ -1733,17 +1846,17 @@
       </c>
       <c r="M35" s="6"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B36" s="23"/>
-      <c r="C36" s="28"/>
+      <c r="C36" s="25"/>
       <c r="D36" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="6"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="20"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="16"/>
       <c r="J36" s="4" t="s">
         <v>10</v>
       </c>
@@ -1751,17 +1864,17 @@
       <c r="L36" s="10"/>
       <c r="M36" s="6"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B37" s="23"/>
-      <c r="C37" s="28"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="20" t="s">
+      <c r="H37" s="27"/>
+      <c r="I37" s="16" t="s">
         <v>45</v>
       </c>
       <c r="J37" s="4" t="s">
@@ -1771,17 +1884,17 @@
       <c r="L37" s="10"/>
       <c r="M37" s="6"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B38" s="23"/>
-      <c r="C38" s="28"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="20"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="16"/>
       <c r="J38" s="4" t="s">
         <v>4</v>
       </c>
@@ -1789,17 +1902,17 @@
       <c r="L38" s="10"/>
       <c r="M38" s="6"/>
     </row>
-    <row r="39" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B39" s="23"/>
-      <c r="C39" s="28"/>
+      <c r="C39" s="25"/>
       <c r="D39" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="21"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="17"/>
       <c r="J39" s="7" t="s">
         <v>6</v>
       </c>
@@ -1807,9 +1920,9 @@
       <c r="L39" s="8"/>
       <c r="M39" s="9"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B40" s="23"/>
-      <c r="C40" s="28"/>
+      <c r="C40" s="25"/>
       <c r="D40" s="4" t="s">
         <v>29</v>
       </c>
@@ -1819,9 +1932,9 @@
       </c>
       <c r="G40" s="6"/>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B41" s="23"/>
-      <c r="C41" s="28"/>
+      <c r="C41" s="25"/>
       <c r="D41" s="4" t="s">
         <v>31</v>
       </c>
@@ -1829,9 +1942,9 @@
       <c r="F41" s="5"/>
       <c r="G41" s="6"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B42" s="23"/>
-      <c r="C42" s="28"/>
+      <c r="C42" s="25"/>
       <c r="D42" s="4" t="s">
         <v>32</v>
       </c>
@@ -1839,9 +1952,9 @@
       <c r="F42" s="5"/>
       <c r="G42" s="6"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B43" s="23"/>
-      <c r="C43" s="28"/>
+      <c r="C43" s="25"/>
       <c r="D43" s="4" t="s">
         <v>33</v>
       </c>
@@ -1851,9 +1964,9 @@
       </c>
       <c r="G43" s="6"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B44" s="23"/>
-      <c r="C44" s="28"/>
+      <c r="C44" s="25"/>
       <c r="D44" s="4" t="s">
         <v>34</v>
       </c>
@@ -1861,9 +1974,9 @@
       <c r="F44" s="5"/>
       <c r="G44" s="6"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B45" s="23"/>
-      <c r="C45" s="28"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="4" t="s">
         <v>35</v>
       </c>
@@ -1873,9 +1986,9 @@
       </c>
       <c r="G45" s="6"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B46" s="23"/>
-      <c r="C46" s="28"/>
+      <c r="C46" s="25"/>
       <c r="D46" s="4" t="s">
         <v>36</v>
       </c>
@@ -1883,9 +1996,9 @@
       <c r="F46" s="5"/>
       <c r="G46" s="6"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B47" s="23"/>
-      <c r="C47" s="28"/>
+      <c r="C47" s="25"/>
       <c r="D47" s="4" t="s">
         <v>37</v>
       </c>
@@ -1895,9 +2008,9 @@
       </c>
       <c r="G47" s="6"/>
     </row>
-    <row r="48" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B48" s="24"/>
-      <c r="C48" s="21"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="7" t="s">
         <v>38</v>
       </c>
@@ -2056,8 +2169,10 @@
     <hyperlink ref="Q19" r:id="rId116" xr:uid="{FF55AC58-7C83-4B6C-BFE5-CA0A6D96C816}"/>
     <hyperlink ref="Q20" r:id="rId117" xr:uid="{097A24E6-BA08-41CA-9201-99141F9E6D5B}"/>
     <hyperlink ref="Q22" r:id="rId118" xr:uid="{A3C14473-D5A9-4FF9-B027-9BCCB3ED6363}"/>
+    <hyperlink ref="Q25" r:id="rId119" xr:uid="{C9BD1055-096A-4A65-BC9E-834A20B69CFB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId119"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId120"/>
+  <drawing r:id="rId121"/>
 </worksheet>
 </file>
--- a/lectures/Lectures.xlsx
+++ b/lectures/Lectures.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yamen\Documents\GitHub\yamenz.github.io\lectures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DC57CD-27E6-4C69-9B28-11A256F7244D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA2BB84-6FB6-489C-932A-A4DD979B12D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{65C964AE-DBEF-4EF9-9DB3-29D9D7BB8354}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="58">
   <si>
     <t>DCP-B</t>
   </si>
@@ -204,13 +204,16 @@
   </si>
   <si>
     <t>Remaining</t>
+  </si>
+  <si>
+    <t>1 Page Summary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +254,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -393,7 +403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -438,6 +448,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -532,8 +548,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>69637</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="2" name="Ink 1">
@@ -552,7 +568,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="2" name="Ink 1">
@@ -911,10 +927,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF10221-8E8C-4D84-A5B2-A5D3F8BEF3E0}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:X48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="42" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView tabSelected="1" topLeftCell="D11" zoomScale="99" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -940,19 +957,19 @@
     <row r="3" spans="2:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="13">
         <f>SUM(U3:W3)</f>
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="C3" s="14">
         <f>SUM(V7:X7)</f>
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="U3" s="15">
         <f>COUNTIFS(K:K, "S", J:J, "&lt;&gt;")</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="V3" s="15">
         <f>COUNTIFS(E:E, "S", D:D, "&lt;&gt;")</f>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="W3" s="15">
         <f>COUNTIFS(Q:Q, "S", P:P, "&lt;&gt;")</f>
@@ -961,10 +978,10 @@
     </row>
     <row r="5" spans="2:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="6" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="23" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -973,10 +990,10 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="23" t="s">
         <v>40</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -985,10 +1002,10 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="18" t="s">
+      <c r="N6" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="O6" s="21" t="s">
+      <c r="O6" s="23" t="s">
         <v>47</v>
       </c>
       <c r="P6" s="1" t="s">
@@ -1003,24 +1020,24 @@
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B7" s="23"/>
-      <c r="C7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="16"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="18"/>
       <c r="J7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="16"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="18"/>
       <c r="P7" s="4" t="s">
         <v>26</v>
       </c>
@@ -1033,11 +1050,11 @@
       </c>
       <c r="V7" s="15">
         <f>COUNTIFS(E:E, "", D:D, "&lt;&gt;")</f>
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="W7" s="15">
         <f>COUNTIFS(K:K, "", J:J, "&lt;&gt;")</f>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="X7" s="15">
         <f>COUNTIFS(Q:Q, "", P:P, "&lt;&gt;")</f>
@@ -1045,16 +1062,16 @@
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B8" s="23"/>
-      <c r="C8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="16"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="18"/>
       <c r="J8" s="4" t="s">
         <v>4</v>
       </c>
@@ -1063,8 +1080,8 @@
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="16"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="18"/>
       <c r="P8" s="4" t="s">
         <v>27</v>
       </c>
@@ -1077,24 +1094,24 @@
       <c r="S8" s="6"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B9" s="23"/>
-      <c r="C9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="16"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="18"/>
       <c r="J9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="6"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="16"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="18"/>
       <c r="P9" s="4" t="s">
         <v>28</v>
       </c>
@@ -1109,24 +1126,24 @@
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B10" s="23"/>
-      <c r="C10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="16"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="18"/>
       <c r="J10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="6"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="16"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="18"/>
       <c r="P10" s="4" t="s">
         <v>29</v>
       </c>
@@ -1137,26 +1154,28 @@
       <c r="S10" s="6"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B11" s="23"/>
-      <c r="C11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="27"/>
-      <c r="I11" s="16"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="18"/>
       <c r="J11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="6"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="16"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="18"/>
       <c r="P11" s="4" t="s">
         <v>31</v>
       </c>
@@ -1166,57 +1185,61 @@
       <c r="R11" s="10"/>
       <c r="S11" s="6"/>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B12" s="23"/>
-      <c r="C12" s="25"/>
+    <row r="12" spans="2:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="25"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="16"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="18"/>
       <c r="J12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="4" t="s">
+      <c r="N12" s="21"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="R12" s="10"/>
-      <c r="S12" s="6"/>
+      <c r="Q12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="8"/>
+      <c r="S12" s="9"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B13" s="23"/>
-      <c r="C13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="F13" s="5"/>
       <c r="G13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="16"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="18"/>
       <c r="J13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="6"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="16" t="s">
+      <c r="N13" s="21"/>
+      <c r="O13" s="18" t="s">
         <v>50</v>
       </c>
       <c r="P13" s="4" t="s">
@@ -1227,26 +1250,28 @@
       <c r="S13" s="6"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B14" s="23"/>
-      <c r="C14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="27"/>
-      <c r="I14" s="16"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="18"/>
       <c r="J14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="6"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="16"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="18"/>
       <c r="P14" s="4" t="s">
         <v>6</v>
       </c>
@@ -1254,27 +1279,27 @@
       <c r="R14" s="10"/>
       <c r="S14" s="6"/>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B15" s="23"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="4" t="s">
+    <row r="15" spans="2:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="25"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6" t="s">
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="16"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="18"/>
       <c r="J15" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="6"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="16"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="18"/>
       <c r="P15" s="4" t="s">
         <v>7</v>
       </c>
@@ -1285,8 +1310,8 @@
       <c r="S15" s="6"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B16" s="23"/>
-      <c r="C16" s="25" t="s">
+      <c r="B16" s="25"/>
+      <c r="C16" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -1295,16 +1320,16 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="16"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="18"/>
       <c r="J16" s="4" t="s">
         <v>27</v>
       </c>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="6"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="16"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="18"/>
       <c r="P16" s="4" t="s">
         <v>9</v>
       </c>
@@ -1314,25 +1339,25 @@
       <c r="R16" s="10"/>
       <c r="S16" s="6"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B17" s="23"/>
-      <c r="C17" s="25"/>
+    <row r="17" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="25"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="4" t="s">
+      <c r="H17" s="29"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="16"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="18"/>
       <c r="P17" s="4" t="s">
         <v>10</v>
       </c>
@@ -1345,16 +1370,16 @@
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B18" s="23"/>
-      <c r="C18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="16" t="s">
+      <c r="H18" s="29"/>
+      <c r="I18" s="18" t="s">
         <v>41</v>
       </c>
       <c r="J18" s="4" t="s">
@@ -1363,8 +1388,8 @@
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="16"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="18"/>
       <c r="P18" s="4" t="s">
         <v>11</v>
       </c>
@@ -1377,24 +1402,24 @@
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B19" s="23"/>
-      <c r="C19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="16"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="18"/>
       <c r="J19" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="16"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="18"/>
       <c r="P19" s="4" t="s">
         <v>28</v>
       </c>
@@ -1409,8 +1434,8 @@
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B20" s="23"/>
-      <c r="C20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="4" t="s">
         <v>15</v>
       </c>
@@ -1419,16 +1444,16 @@
       <c r="G20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="27"/>
-      <c r="I20" s="16"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="18"/>
       <c r="J20" s="4" t="s">
         <v>6</v>
       </c>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
       <c r="M20" s="6"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="16"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="18"/>
       <c r="P20" s="4" t="s">
         <v>29</v>
       </c>
@@ -1443,8 +1468,8 @@
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B21" s="23"/>
-      <c r="C21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="4" t="s">
         <v>17</v>
       </c>
@@ -1453,16 +1478,16 @@
       <c r="G21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="27"/>
-      <c r="I21" s="16"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="18"/>
       <c r="J21" s="4" t="s">
         <v>7</v>
       </c>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
       <c r="M21" s="6"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="16"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="18"/>
       <c r="P21" s="4" t="s">
         <v>31</v>
       </c>
@@ -1475,24 +1500,24 @@
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B22" s="23"/>
-      <c r="C22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="16"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="18"/>
       <c r="J22" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="6"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="16"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="18"/>
       <c r="P22" s="4" t="s">
         <v>32</v>
       </c>
@@ -1507,8 +1532,8 @@
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B23" s="23"/>
-      <c r="C23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="4" t="s">
         <v>18</v>
       </c>
@@ -1517,8 +1542,8 @@
       <c r="G23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="27"/>
-      <c r="I23" s="16"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="18"/>
       <c r="J23" s="4" t="s">
         <v>10</v>
       </c>
@@ -1527,8 +1552,8 @@
       </c>
       <c r="L23" s="10"/>
       <c r="M23" s="6"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="16"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="18"/>
       <c r="P23" s="4" t="s">
         <v>33</v>
       </c>
@@ -1543,8 +1568,8 @@
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B24" s="23"/>
-      <c r="C24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="27"/>
       <c r="D24" s="4" t="s">
         <v>19</v>
       </c>
@@ -1553,8 +1578,8 @@
       <c r="G24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="27"/>
-      <c r="I24" s="16"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="18"/>
       <c r="J24" s="4" t="s">
         <v>11</v>
       </c>
@@ -1563,8 +1588,8 @@
       </c>
       <c r="L24" s="10"/>
       <c r="M24" s="6"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="16"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="18"/>
       <c r="P24" s="4" t="s">
         <v>34</v>
       </c>
@@ -1578,27 +1603,27 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B25" s="23"/>
-      <c r="C25" s="25"/>
+    <row r="25" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B25" s="25"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="4" t="s">
+      <c r="H25" s="29"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K25" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="10"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="16"/>
+      <c r="K25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="8"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="18"/>
       <c r="P25" s="4" t="s">
         <v>35</v>
       </c>
@@ -1613,26 +1638,28 @@
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B26" s="23"/>
-      <c r="C26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="16" t="s">
+      <c r="H26" s="29"/>
+      <c r="I26" s="18" t="s">
         <v>42</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K26" s="10"/>
+      <c r="K26" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="L26" s="10"/>
       <c r="M26" s="6"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="16"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="18"/>
       <c r="P26" s="4" t="s">
         <v>36</v>
       </c>
@@ -1644,27 +1671,29 @@
       </c>
       <c r="S26" s="6"/>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B27" s="23"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="4" t="s">
+    <row r="27" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B27" s="25"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="6" t="s">
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="27"/>
-      <c r="I27" s="16"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="18"/>
       <c r="J27" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K27" s="10"/>
+      <c r="K27" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="L27" s="10"/>
       <c r="M27" s="6"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="16"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="18"/>
       <c r="P27" s="4" t="s">
         <v>37</v>
       </c>
@@ -1677,8 +1706,8 @@
       <c r="S27" s="6"/>
     </row>
     <row r="28" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="23"/>
-      <c r="C28" s="25" t="s">
+      <c r="B28" s="25"/>
+      <c r="C28" s="27" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -1689,16 +1718,18 @@
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="4" t="s">
+      <c r="H28" s="29"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="17"/>
+      <c r="K28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="8"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="19"/>
       <c r="P28" s="7" t="s">
         <v>38</v>
       </c>
@@ -1707,8 +1738,8 @@
       <c r="S28" s="9"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B29" s="23"/>
-      <c r="C29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="27"/>
       <c r="D29" s="4" t="s">
         <v>23</v>
       </c>
@@ -1717,20 +1748,22 @@
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="6"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="16" t="s">
+      <c r="H29" s="29"/>
+      <c r="I29" s="18" t="s">
         <v>43</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K29" s="10"/>
+      <c r="K29" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="L29" s="10"/>
       <c r="M29" s="6"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B30" s="23"/>
-      <c r="C30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="27"/>
       <c r="D30" s="4" t="s">
         <v>24</v>
       </c>
@@ -1739,62 +1772,72 @@
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="6"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="16"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="18"/>
       <c r="J30" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K30" s="10"/>
+      <c r="K30" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="L30" s="10"/>
       <c r="M30" s="6"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B31" s="23"/>
-      <c r="C31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="27"/>
       <c r="D31" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="F31" s="5"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="16"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="18"/>
       <c r="J31" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K31" s="10"/>
+      <c r="K31" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="L31" s="10"/>
       <c r="M31" s="6"/>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B32" s="23"/>
-      <c r="C32" s="25"/>
+    <row r="32" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B32" s="25"/>
+      <c r="C32" s="27"/>
       <c r="D32" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="F32" s="5"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="4" t="s">
+      <c r="H32" s="29"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="6"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="9"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B33" s="23"/>
-      <c r="C33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="27"/>
       <c r="D33" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="5"/>
+      <c r="E33" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="F33" s="5"/>
       <c r="G33" s="6"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="16" t="s">
+      <c r="H33" s="29"/>
+      <c r="I33" s="18" t="s">
         <v>44</v>
       </c>
       <c r="J33" s="4" t="s">
@@ -1807,16 +1850,18 @@
       <c r="M33" s="6"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B34" s="23"/>
-      <c r="C34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="27"/>
       <c r="D34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="5"/>
+      <c r="E34" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="F34" s="5"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="16"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="18"/>
       <c r="J34" s="4" t="s">
         <v>7</v>
       </c>
@@ -1827,16 +1872,18 @@
       <c r="M34" s="6"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B35" s="23"/>
-      <c r="C35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="27"/>
       <c r="D35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="E35" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="F35" s="5"/>
       <c r="G35" s="6"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="16"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="18"/>
       <c r="J35" s="4" t="s">
         <v>9</v>
       </c>
@@ -1846,35 +1893,37 @@
       </c>
       <c r="M35" s="6"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B36" s="23"/>
-      <c r="C36" s="25"/>
+    <row r="36" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B36" s="25"/>
+      <c r="C36" s="27"/>
       <c r="D36" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="6"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="4" t="s">
+      <c r="H36" s="29"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="6"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="9"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B37" s="23"/>
-      <c r="C37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="27"/>
       <c r="D37" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="5"/>
+      <c r="E37" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="F37" s="5"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="16" t="s">
+      <c r="H37" s="29"/>
+      <c r="I37" s="18" t="s">
         <v>45</v>
       </c>
       <c r="J37" s="4" t="s">
@@ -1885,16 +1934,18 @@
       <c r="M37" s="6"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B38" s="23"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="27"/>
       <c r="D38" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="5"/>
+      <c r="E38" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="F38" s="5"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="16"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="18"/>
       <c r="J38" s="4" t="s">
         <v>4</v>
       </c>
@@ -1903,16 +1954,18 @@
       <c r="M38" s="6"/>
     </row>
     <row r="39" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B39" s="23"/>
-      <c r="C39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="27"/>
       <c r="D39" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="5"/>
+      <c r="E39" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="F39" s="5"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="17"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="19"/>
       <c r="J39" s="7" t="s">
         <v>6</v>
       </c>
@@ -1921,20 +1974,22 @@
       <c r="M39" s="9"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B40" s="23"/>
-      <c r="C40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="27"/>
       <c r="D40" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="5"/>
+      <c r="E40" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="F40" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G40" s="6"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B41" s="23"/>
-      <c r="C41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="27"/>
       <c r="D41" s="4" t="s">
         <v>31</v>
       </c>
@@ -1943,30 +1998,34 @@
       <c r="G41" s="6"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B42" s="23"/>
-      <c r="C42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="27"/>
       <c r="D42" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="5"/>
+      <c r="E42" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="F42" s="5"/>
       <c r="G42" s="6"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B43" s="23"/>
-      <c r="C43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="27"/>
       <c r="D43" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="5"/>
+      <c r="E43" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="F43" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G43" s="6"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B44" s="23"/>
-      <c r="C44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="27"/>
       <c r="D44" s="4" t="s">
         <v>34</v>
       </c>
@@ -1975,20 +2034,22 @@
       <c r="G44" s="6"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B45" s="23"/>
-      <c r="C45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="27"/>
       <c r="D45" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E45" s="5"/>
+      <c r="E45" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="F45" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G45" s="6"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B46" s="23"/>
-      <c r="C46" s="25"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="27"/>
       <c r="D46" s="4" t="s">
         <v>36</v>
       </c>
@@ -1997,24 +2058,30 @@
       <c r="G46" s="6"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B47" s="23"/>
-      <c r="C47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="27"/>
       <c r="D47" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E47" s="5"/>
+      <c r="E47" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="F47" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="6"/>
+      <c r="G47" s="17" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="48" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B48" s="24"/>
-      <c r="C48" s="17"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="19"/>
       <c r="D48" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E48" s="8"/>
+      <c r="E48" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F48" s="8"/>
       <c r="G48" s="9"/>
     </row>
@@ -2051,128 +2118,135 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" xr:uid="{FEDCC924-1F31-490A-98C8-F34011931762}"/>
-    <hyperlink ref="D7" r:id="rId2" xr:uid="{4A72BB37-608B-4E5D-8B75-995757D84129}"/>
-    <hyperlink ref="D8" r:id="rId3" xr:uid="{3EB395C8-5B50-49F6-964D-0AE01995716C}"/>
-    <hyperlink ref="D9" r:id="rId4" xr:uid="{E8313589-3BCE-43D5-A4DC-7810D73379CA}"/>
-    <hyperlink ref="D10" r:id="rId5" xr:uid="{83D5152B-F70E-436C-AAC6-1F94E52B63A1}"/>
-    <hyperlink ref="D11" r:id="rId6" xr:uid="{3D8EA264-33DC-4535-80E4-5127C73F9A71}"/>
-    <hyperlink ref="D12" r:id="rId7" xr:uid="{323CDFDC-E33B-4D6C-ADC1-EC02801F9EDB}"/>
-    <hyperlink ref="D13" r:id="rId8" xr:uid="{B7B13681-150C-4E30-B269-B1875A036681}"/>
-    <hyperlink ref="D14" r:id="rId9" xr:uid="{FE7007D2-8F2B-4461-839F-01A54F9C99DB}"/>
-    <hyperlink ref="D15" r:id="rId10" xr:uid="{94ADA551-A4FD-4966-8E53-146D645122C5}"/>
-    <hyperlink ref="D16" r:id="rId11" xr:uid="{EFB03BB0-7E84-461B-9B59-DF6BEB5C0BE6}"/>
-    <hyperlink ref="D17" r:id="rId12" xr:uid="{6A6BA11A-34B3-4F6C-AF3A-85C193920B69}"/>
-    <hyperlink ref="D18" r:id="rId13" xr:uid="{45342264-A7A5-41D5-8CC5-9AC115D032A2}"/>
-    <hyperlink ref="D19" r:id="rId14" xr:uid="{1126FF9B-0B5B-4C90-926E-55914545C8BB}"/>
-    <hyperlink ref="D22" r:id="rId15" xr:uid="{BB18F085-BCFA-47CD-871E-F8F5621A2CCE}"/>
-    <hyperlink ref="D25" r:id="rId16" xr:uid="{B82F3388-A23B-4D17-A26D-4E3237141E7D}"/>
-    <hyperlink ref="D26" r:id="rId17" xr:uid="{C6D5F231-BF65-4234-B3C2-0FFC1EFC2EC8}"/>
-    <hyperlink ref="D20" r:id="rId18" xr:uid="{BE2BC293-1389-49BE-AF86-44BB32375E4D}"/>
-    <hyperlink ref="D21" r:id="rId19" xr:uid="{EC8FF9F3-F715-4026-8FE9-FC80D57F5FC9}"/>
-    <hyperlink ref="D23" r:id="rId20" xr:uid="{8689967D-687F-433B-BFF9-0DA0E7318BF9}"/>
-    <hyperlink ref="D24" r:id="rId21" xr:uid="{C23BA3F7-ED19-4F1F-A3B3-4461C392246D}"/>
-    <hyperlink ref="D27" r:id="rId22" xr:uid="{841E8EF1-CA9A-4BF8-891F-173C65308538}"/>
-    <hyperlink ref="D28" r:id="rId23" xr:uid="{0126183C-0C34-46F9-8B92-D16B670CEFB3}"/>
-    <hyperlink ref="D29" r:id="rId24" xr:uid="{171CF4FD-41F9-44A1-8AFD-8FACA591F41A}"/>
-    <hyperlink ref="D30" r:id="rId25" xr:uid="{7EE2227D-2CFF-4285-A818-8AE4F71775E0}"/>
-    <hyperlink ref="D31" r:id="rId26" xr:uid="{BFF84A8B-0A86-4855-95AC-B8B153BE9435}"/>
-    <hyperlink ref="D32" r:id="rId27" xr:uid="{364D4FBF-6672-4E02-8187-DB97C4E7BA72}"/>
-    <hyperlink ref="D33" r:id="rId28" xr:uid="{850F58F7-D153-4F1D-AE3D-964426184F27}"/>
-    <hyperlink ref="D34" r:id="rId29" xr:uid="{B29BA2FD-5383-48BD-A4D1-1E41C2A94083}"/>
-    <hyperlink ref="D35" r:id="rId30" xr:uid="{382C9E3A-7208-4BE5-9E5B-F44BA427D31D}"/>
-    <hyperlink ref="D36" r:id="rId31" xr:uid="{40F4A225-7467-414B-BA2B-1510E51B8CD5}"/>
-    <hyperlink ref="D37" r:id="rId32" xr:uid="{31D3E15E-4118-428E-B13C-BB12BACA9419}"/>
-    <hyperlink ref="D38" r:id="rId33" xr:uid="{AF3E86FB-FDCD-4EE5-B70D-21562AB01CD2}"/>
-    <hyperlink ref="D39" r:id="rId34" xr:uid="{F1AAE0E3-33A3-4FD9-9107-1911051E011A}"/>
-    <hyperlink ref="D40" r:id="rId35" xr:uid="{28A60390-155D-4074-AE59-DD4F25CD2B18}"/>
-    <hyperlink ref="D41" r:id="rId36" xr:uid="{77B3175C-143B-4A51-B2B3-B3924A6EE29D}"/>
-    <hyperlink ref="D42" r:id="rId37" xr:uid="{12376BF7-E575-4F48-99CD-2A89C4CE4FFC}"/>
-    <hyperlink ref="D43" r:id="rId38" xr:uid="{0FAAFE76-DA6F-40EE-AEB2-F58E1EA05475}"/>
-    <hyperlink ref="D44" r:id="rId39" xr:uid="{20F44DC8-062C-4AC9-9308-4642F81ABF71}"/>
-    <hyperlink ref="D45" r:id="rId40" xr:uid="{29620900-76CE-4F9F-B3F4-DF8D2B25A758}"/>
-    <hyperlink ref="D46" r:id="rId41" xr:uid="{C93D883C-796A-4147-A96B-6DB47D2CC7B3}"/>
-    <hyperlink ref="D47" r:id="rId42" xr:uid="{DAF4C7E3-6AEB-4E31-81A1-183D24DD1A8A}"/>
-    <hyperlink ref="D48" r:id="rId43" xr:uid="{194B6C53-121A-4949-9B37-C3EA88E0F78F}"/>
-    <hyperlink ref="E28" r:id="rId44" xr:uid="{09203FB2-7951-426D-B30C-575A437AF766}"/>
-    <hyperlink ref="E29" r:id="rId45" xr:uid="{9C08E8D3-CE7F-4072-B3DE-E8AE77C7DABF}"/>
-    <hyperlink ref="E30" r:id="rId46" xr:uid="{B7B94FF6-65DE-4F1D-83FF-1DD5AD504292}"/>
-    <hyperlink ref="J6" r:id="rId47" xr:uid="{2556F44C-6FAB-4C2E-9D19-87CD2CAE4204}"/>
-    <hyperlink ref="J7" r:id="rId48" xr:uid="{996DE036-9917-42D4-AD8B-A06615EB4BCE}"/>
-    <hyperlink ref="J8" r:id="rId49" xr:uid="{096CA6D1-CA74-4AB4-94BE-4492EC182730}"/>
-    <hyperlink ref="K8" r:id="rId50" xr:uid="{C1ACF34A-B732-4E0B-BF6C-303DBA6D35EE}"/>
-    <hyperlink ref="J9" r:id="rId51" xr:uid="{AA7C6B56-F60D-45B3-9216-CEE129EAC6CF}"/>
-    <hyperlink ref="J10" r:id="rId52" xr:uid="{BFE34732-F385-4E27-BE3A-4930A250900B}"/>
-    <hyperlink ref="J11" r:id="rId53" xr:uid="{0093347B-821F-4E90-99FC-87AD826FA855}"/>
-    <hyperlink ref="J12" r:id="rId54" xr:uid="{9B57E5F8-31ED-4208-A053-24B48FF2F1F4}"/>
-    <hyperlink ref="J13:J17" r:id="rId55" display="Q2-4" xr:uid="{D942AD7D-19FC-4066-A834-6440F9F4850E}"/>
-    <hyperlink ref="J13" r:id="rId56" xr:uid="{893FA62E-5F0E-4D92-8AFF-76B851F06D22}"/>
-    <hyperlink ref="J14" r:id="rId57" xr:uid="{420F3003-692A-49B1-88DB-BD5000CEA0E1}"/>
-    <hyperlink ref="J15" r:id="rId58" xr:uid="{3D6AAEF6-2152-41CF-B189-73B6432A59AF}"/>
-    <hyperlink ref="J16" r:id="rId59" xr:uid="{A68C837D-0F06-46B9-AB49-E09C195FC530}"/>
-    <hyperlink ref="J17" r:id="rId60" xr:uid="{2321E89D-CB69-462D-9964-6C25EB7AEAA4}"/>
-    <hyperlink ref="J18" r:id="rId61" xr:uid="{CE8DA6DB-6471-4F90-B84F-F87C61FFE871}"/>
-    <hyperlink ref="J19" r:id="rId62" xr:uid="{66E9E42D-D25D-4FB0-BFF8-B1A1B93104E4}"/>
-    <hyperlink ref="J20" r:id="rId63" xr:uid="{87B48155-6DDA-40B2-8C52-A6D9B166918D}"/>
-    <hyperlink ref="J21" r:id="rId64" xr:uid="{F09113CF-9590-494A-B015-599ED70C50CE}"/>
-    <hyperlink ref="J22" r:id="rId65" xr:uid="{F4C43185-5E24-43CB-9507-703612C009E3}"/>
-    <hyperlink ref="J23" r:id="rId66" xr:uid="{81EE5A51-D63A-4A43-9CEF-509B911EE575}"/>
-    <hyperlink ref="J24" r:id="rId67" xr:uid="{139FF0F2-5979-490E-82D5-E00CB6860F6F}"/>
-    <hyperlink ref="J25" r:id="rId68" xr:uid="{25D22062-AF0D-47EF-A9A5-3BACFFF210C3}"/>
-    <hyperlink ref="K23" r:id="rId69" xr:uid="{39BB060C-89C3-4B0D-A976-7CBAFD3F4615}"/>
-    <hyperlink ref="K24" r:id="rId70" xr:uid="{CF5F919E-6520-400E-98C0-F7206B6A76A8}"/>
-    <hyperlink ref="K25" r:id="rId71" xr:uid="{F0E2FD58-909A-4E70-8C6E-21279A069011}"/>
-    <hyperlink ref="J26" r:id="rId72" xr:uid="{714D86A3-6A83-4AA4-84CA-FD434330B65F}"/>
-    <hyperlink ref="J27" r:id="rId73" xr:uid="{865F9CC8-D7FD-45E7-A2C5-D603195D8D12}"/>
-    <hyperlink ref="J28" r:id="rId74" xr:uid="{D48C8024-D366-4332-AE37-63CC2D0C9C2E}"/>
-    <hyperlink ref="J29" r:id="rId75" xr:uid="{2E5F2CC8-2B5A-48E7-8DA1-1FFAF77583E6}"/>
-    <hyperlink ref="J30" r:id="rId76" xr:uid="{50DA946F-C45C-48D2-B43A-64C71FEEFAA2}"/>
-    <hyperlink ref="J31" r:id="rId77" xr:uid="{EC821051-3C8A-4C34-8B73-04E887E2D161}"/>
-    <hyperlink ref="J32" r:id="rId78" xr:uid="{CC7B214B-DA56-4CF9-B392-C5B43D1BCE38}"/>
-    <hyperlink ref="J33" r:id="rId79" xr:uid="{47C80ADF-3107-453D-A05D-B529F014503C}"/>
-    <hyperlink ref="J34" r:id="rId80" xr:uid="{7C0324B2-EEA9-4267-B006-7BD2B45724E3}"/>
-    <hyperlink ref="J35" r:id="rId81" xr:uid="{0A5A862E-D19B-4E42-BDC6-CEB0FF231367}"/>
-    <hyperlink ref="J36" r:id="rId82" xr:uid="{D69E8240-569A-42CC-A32E-89E02D74F011}"/>
-    <hyperlink ref="J37" r:id="rId83" xr:uid="{AFC3010D-B328-4AE4-BFC9-E135EAE94ABF}"/>
-    <hyperlink ref="J38" r:id="rId84" xr:uid="{8B6D6FDE-C0B5-4CBF-86F6-5F0879FDDB49}"/>
-    <hyperlink ref="J39" r:id="rId85" xr:uid="{D67F4CEF-3A56-47BD-997D-D2465342C223}"/>
-    <hyperlink ref="P6" r:id="rId86" xr:uid="{11039E3C-8E07-4647-81FF-EAC817A43E79}"/>
-    <hyperlink ref="P7" r:id="rId87" xr:uid="{14AB2DD5-EF0D-40F8-8D72-C1C6BC10EBBC}"/>
-    <hyperlink ref="P8" r:id="rId88" xr:uid="{6A97F3F8-2300-40CC-8DB9-8B2320C64F94}"/>
-    <hyperlink ref="P9" r:id="rId89" xr:uid="{17591F6D-FF88-4F17-A384-02FBC7BA1EC8}"/>
-    <hyperlink ref="P10" r:id="rId90" xr:uid="{1BBDA72D-C782-490A-9557-991EF8B8A0A3}"/>
-    <hyperlink ref="P11" r:id="rId91" xr:uid="{73EADDE6-C0C7-42E6-93C3-185CD2F04551}"/>
-    <hyperlink ref="P12" r:id="rId92" xr:uid="{8C9E59DD-BF0B-4FBD-B072-FC409DF23601}"/>
-    <hyperlink ref="P13" r:id="rId93" xr:uid="{52CF9E0A-307A-4519-9787-10F216E9B3E5}"/>
-    <hyperlink ref="P14" r:id="rId94" xr:uid="{13D11093-5CDE-4EA6-9C70-2B71086D946D}"/>
-    <hyperlink ref="P19" r:id="rId95" xr:uid="{095B5E0E-6608-4DE3-A713-A4876D1FBF2B}"/>
-    <hyperlink ref="P20" r:id="rId96" xr:uid="{DB6AB041-BCDF-457A-972B-54C1115D7CCF}"/>
-    <hyperlink ref="P22" r:id="rId97" xr:uid="{70941E71-F017-4760-BC54-8BCF24769F2A}"/>
-    <hyperlink ref="P23" r:id="rId98" xr:uid="{DB79B925-ABBE-4A09-993B-846DC0183403}"/>
-    <hyperlink ref="P24" r:id="rId99" xr:uid="{F893047E-B4A6-4AE9-9039-BCAE7ECA32AD}"/>
-    <hyperlink ref="P25" r:id="rId100" xr:uid="{130E062D-6032-4C4D-80C3-2C382F0D0634}"/>
-    <hyperlink ref="P26" r:id="rId101" xr:uid="{70D3A916-2548-48E9-BEE7-394BBAFCF3DC}"/>
-    <hyperlink ref="P27" r:id="rId102" xr:uid="{A505960F-6643-4A56-AB86-D418FDEC0368}"/>
-    <hyperlink ref="P28" r:id="rId103" xr:uid="{8A7C0AC5-8835-41EC-BBFE-553C59679DFC}"/>
-    <hyperlink ref="Q6" r:id="rId104" xr:uid="{D842AF67-7130-4EC4-BFA7-AD88A938CF32}"/>
-    <hyperlink ref="Q7" r:id="rId105" xr:uid="{B2598917-69FE-4E33-AFCD-645CCEB94366}"/>
-    <hyperlink ref="Q8" r:id="rId106" xr:uid="{6A2558D7-C99F-4997-AD8A-9AB79C7993F1}"/>
-    <hyperlink ref="Q9" r:id="rId107" xr:uid="{F1B1A125-D327-4C27-BAB3-925D39AB65DC}"/>
-    <hyperlink ref="Q10" r:id="rId108" xr:uid="{D75E385E-6729-43F4-82E9-616B4C9A610D}"/>
-    <hyperlink ref="Q11" r:id="rId109" xr:uid="{86F407CD-1C16-4232-9166-AC8A25F1A945}"/>
-    <hyperlink ref="Q12" r:id="rId110" xr:uid="{1B30B5CF-B174-4C6C-8AAB-29570FC4DE57}"/>
-    <hyperlink ref="P21" r:id="rId111" xr:uid="{1659E767-E432-4731-A3B3-C87169B99F90}"/>
-    <hyperlink ref="P15" r:id="rId112" xr:uid="{6EA29A84-EC7B-47D4-813F-DB17DE89DC6C}"/>
-    <hyperlink ref="P16" r:id="rId113" xr:uid="{49B50A62-409F-48AE-BA11-21E2F24C0833}"/>
-    <hyperlink ref="P17" r:id="rId114" display="Q2-4&amp;5" xr:uid="{4AD5D47E-8972-42E6-B8A5-74A4B2BB9371}"/>
-    <hyperlink ref="P18" r:id="rId115" xr:uid="{562E562D-25ED-4E22-8993-50D01AF4F1A0}"/>
-    <hyperlink ref="Q19" r:id="rId116" xr:uid="{FF55AC58-7C83-4B6C-BFE5-CA0A6D96C816}"/>
-    <hyperlink ref="Q20" r:id="rId117" xr:uid="{097A24E6-BA08-41CA-9201-99141F9E6D5B}"/>
-    <hyperlink ref="Q22" r:id="rId118" xr:uid="{A3C14473-D5A9-4FF9-B027-9BCCB3ED6363}"/>
-    <hyperlink ref="Q25" r:id="rId119" xr:uid="{C9BD1055-096A-4A65-BC9E-834A20B69CFB}"/>
+    <hyperlink ref="D6" r:id="rId1" display="b/ortho/q1-1.pdf" xr:uid="{FEDCC924-1F31-490A-98C8-F34011931762}"/>
+    <hyperlink ref="D7" r:id="rId2" display="..\..\..\..\AppData\Roaming\Microsoft\Excel\b\ortho\q1-2.pdf" xr:uid="{4A72BB37-608B-4E5D-8B75-995757D84129}"/>
+    <hyperlink ref="D8" r:id="rId3" display="b/ortho/q1-3.pdf" xr:uid="{3EB395C8-5B50-49F6-964D-0AE01995716C}"/>
+    <hyperlink ref="D9" r:id="rId4" display="..\..\..\..\AppData\Roaming\Microsoft\Excel\b\ortho\q1-4.pdf" xr:uid="{E8313589-3BCE-43D5-A4DC-7810D73379CA}"/>
+    <hyperlink ref="D10" r:id="rId5" display="b/ortho/q2-1.pdf" xr:uid="{83D5152B-F70E-436C-AAC6-1F94E52B63A1}"/>
+    <hyperlink ref="D11" r:id="rId6" display="b/ortho/q2-2.pdf" xr:uid="{3D8EA264-33DC-4535-80E4-5127C73F9A71}"/>
+    <hyperlink ref="D12" r:id="rId7" display="b/ortho/q2-3.pdf" xr:uid="{323CDFDC-E33B-4D6C-ADC1-EC02801F9EDB}"/>
+    <hyperlink ref="D13" r:id="rId8" display="b\ortho\q2-4.pdf" xr:uid="{B7B13681-150C-4E30-B269-B1875A036681}"/>
+    <hyperlink ref="D14" r:id="rId9" display="b/ortho/q2-5.pdf" xr:uid="{FE7007D2-8F2B-4461-839F-01A54F9C99DB}"/>
+    <hyperlink ref="D15" r:id="rId10" display="b/ortho/manual.pdf" xr:uid="{94ADA551-A4FD-4966-8E53-146D645122C5}"/>
+    <hyperlink ref="D16" r:id="rId11" display="b/community/q1-1.pdf" xr:uid="{EFB03BB0-7E84-461B-9B59-DF6BEB5C0BE6}"/>
+    <hyperlink ref="D17" r:id="rId12" display="b/community/q1-2.pdf" xr:uid="{6A6BA11A-34B3-4F6C-AF3A-85C193920B69}"/>
+    <hyperlink ref="D18" r:id="rId13" display="b/community/q1-3.pdf" xr:uid="{45342264-A7A5-41D5-8CC5-9AC115D032A2}"/>
+    <hyperlink ref="D19" r:id="rId14" display="b/community/q2-1.pdf" xr:uid="{1126FF9B-0B5B-4C90-926E-55914545C8BB}"/>
+    <hyperlink ref="D22" r:id="rId15" display="b/community/q2-2.pdf" xr:uid="{BB18F085-BCFA-47CD-871E-F8F5621A2CCE}"/>
+    <hyperlink ref="D25" r:id="rId16" display="b/community/q2-3.pdf" xr:uid="{B82F3388-A23B-4D17-A26D-4E3237141E7D}"/>
+    <hyperlink ref="D26" r:id="rId17" display="b/community/q2-4.pdf" xr:uid="{C6D5F231-BF65-4234-B3C2-0FFC1EFC2EC8}"/>
+    <hyperlink ref="D20" r:id="rId18" display="b/community/q2-article-1.pdf" xr:uid="{BE2BC293-1389-49BE-AF86-44BB32375E4D}"/>
+    <hyperlink ref="D21" r:id="rId19" display="b/community/q2-article-2.pdf" xr:uid="{EC8FF9F3-F715-4026-8FE9-FC80D57F5FC9}"/>
+    <hyperlink ref="D23" r:id="rId20" display="b/community/q2-article-3.pdf" xr:uid="{8689967D-687F-433B-BFF9-0DA0E7318BF9}"/>
+    <hyperlink ref="D24" r:id="rId21" display="b/community/q2-article-3-q" xr:uid="{C23BA3F7-ED19-4F1F-A3B3-4461C392246D}"/>
+    <hyperlink ref="D27" r:id="rId22" display="b/community/q2-article-4.pdf" xr:uid="{841E8EF1-CA9A-4BF8-891F-173C65308538}"/>
+    <hyperlink ref="D29" r:id="rId23" display="b/pedo/q1-5.pdf" xr:uid="{171CF4FD-41F9-44A1-8AFD-8FACA591F41A}"/>
+    <hyperlink ref="D30" r:id="rId24" display="b/pedo/q1-6.pdf" xr:uid="{7EE2227D-2CFF-4285-A818-8AE4F71775E0}"/>
+    <hyperlink ref="D31" r:id="rId25" display="b/pedo/q1-7.pdf" xr:uid="{BFF84A8B-0A86-4855-95AC-B8B153BE9435}"/>
+    <hyperlink ref="D32" r:id="rId26" xr:uid="{364D4FBF-6672-4E02-8187-DB97C4E7BA72}"/>
+    <hyperlink ref="D33" r:id="rId27" display="b\pedo\q2-2.pdf" xr:uid="{850F58F7-D153-4F1D-AE3D-964426184F27}"/>
+    <hyperlink ref="D34" r:id="rId28" display="b\pedo\q2-3.pdf" xr:uid="{B29BA2FD-5383-48BD-A4D1-1E41C2A94083}"/>
+    <hyperlink ref="D35" r:id="rId29" display="b\pedo\q2-4.pdf" xr:uid="{382C9E3A-7208-4BE5-9E5B-F44BA427D31D}"/>
+    <hyperlink ref="D36" r:id="rId30" display="b\pedo\q2-5.pdf" xr:uid="{40F4A225-7467-414B-BA2B-1510E51B8CD5}"/>
+    <hyperlink ref="D37" r:id="rId31" display="b\pedo\q2-6.pdf" xr:uid="{31D3E15E-4118-428E-B13C-BB12BACA9419}"/>
+    <hyperlink ref="D38" r:id="rId32" display="b\pedo\q2-7.pdf" xr:uid="{AF3E86FB-FDCD-4EE5-B70D-21562AB01CD2}"/>
+    <hyperlink ref="D39" r:id="rId33" display="b\pedo\q2-8.pdf" xr:uid="{F1AAE0E3-33A3-4FD9-9107-1911051E011A}"/>
+    <hyperlink ref="D40" r:id="rId34" display="b\pedo\q2-9.pdf" xr:uid="{28A60390-155D-4074-AE59-DD4F25CD2B18}"/>
+    <hyperlink ref="D41" r:id="rId35" display="b/pedo/q2-10.pdf" xr:uid="{77B3175C-143B-4A51-B2B3-B3924A6EE29D}"/>
+    <hyperlink ref="D42" r:id="rId36" display="b/pedo/q2-11.pdf" xr:uid="{12376BF7-E575-4F48-99CD-2A89C4CE4FFC}"/>
+    <hyperlink ref="D43" r:id="rId37" display="b/pedo/q2-12.pdf" xr:uid="{0FAAFE76-DA6F-40EE-AEB2-F58E1EA05475}"/>
+    <hyperlink ref="D44" r:id="rId38" display="b/pedo/q2-13.pdf" xr:uid="{20F44DC8-062C-4AC9-9308-4642F81ABF71}"/>
+    <hyperlink ref="D45" r:id="rId39" display="b/pedo/q2-14.pdf" xr:uid="{29620900-76CE-4F9F-B3F4-DF8D2B25A758}"/>
+    <hyperlink ref="D46" r:id="rId40" display="b\pedo\q2-15.pdf" xr:uid="{C93D883C-796A-4147-A96B-6DB47D2CC7B3}"/>
+    <hyperlink ref="D47" r:id="rId41" display="b/pedo/q2-16.pdf" xr:uid="{DAF4C7E3-6AEB-4E31-81A1-183D24DD1A8A}"/>
+    <hyperlink ref="D48" r:id="rId42" display="b/pedo/q2-17.pdf" xr:uid="{194B6C53-121A-4949-9B37-C3EA88E0F78F}"/>
+    <hyperlink ref="E28" r:id="rId43" display="b/pedo/q1-4-s.pdf" xr:uid="{09203FB2-7951-426D-B30C-575A437AF766}"/>
+    <hyperlink ref="E29" r:id="rId44" display="b/pedo/q1-5-s.pdf" xr:uid="{9C08E8D3-CE7F-4072-B3DE-E8AE77C7DABF}"/>
+    <hyperlink ref="E30" r:id="rId45" display="..\..\..\..\AppData\Roaming\Microsoft\Excel\b\pedo\q1-6-s.pdf" xr:uid="{B7B94FF6-65DE-4F1D-83FF-1DD5AD504292}"/>
+    <hyperlink ref="J6" r:id="rId46" display="s/oralmed/q1-1.pdf" xr:uid="{2556F44C-6FAB-4C2E-9D19-87CD2CAE4204}"/>
+    <hyperlink ref="J7" r:id="rId47" display="s/oralmed/q1-2.pdf" xr:uid="{996DE036-9917-42D4-AD8B-A06615EB4BCE}"/>
+    <hyperlink ref="J8" r:id="rId48" display="s/oralmed/q1-3.pdf" xr:uid="{096CA6D1-CA74-4AB4-94BE-4492EC182730}"/>
+    <hyperlink ref="K8" r:id="rId49" display="s/oralmed/q1-3-s.pdf" xr:uid="{C1ACF34A-B732-4E0B-BF6C-303DBA6D35EE}"/>
+    <hyperlink ref="J9" r:id="rId50" display="s/oralmed/q1-4.pdf" xr:uid="{AA7C6B56-F60D-45B3-9216-CEE129EAC6CF}"/>
+    <hyperlink ref="J10" r:id="rId51" display="s/oralmed/q2-1.pdf" xr:uid="{BFE34732-F385-4E27-BE3A-4930A250900B}"/>
+    <hyperlink ref="J11" r:id="rId52" display="s/oralmed/q2-2.pdf" xr:uid="{0093347B-821F-4E90-99FC-87AD826FA855}"/>
+    <hyperlink ref="J12" r:id="rId53" display="s/oralmed/q2-3.pdf" xr:uid="{9B57E5F8-31ED-4208-A053-24B48FF2F1F4}"/>
+    <hyperlink ref="J13:J17" r:id="rId54" display="Q2-4" xr:uid="{D942AD7D-19FC-4066-A834-6440F9F4850E}"/>
+    <hyperlink ref="J13" r:id="rId55" display="s/oralmed/q2-4.pdf" xr:uid="{893FA62E-5F0E-4D92-8AFF-76B851F06D22}"/>
+    <hyperlink ref="J14" r:id="rId56" display="s/oralmed/q2-5.pdf" xr:uid="{420F3003-692A-49B1-88DB-BD5000CEA0E1}"/>
+    <hyperlink ref="J15" r:id="rId57" display="s/oralmed/q2-6.pdf" xr:uid="{3D6AAEF6-2152-41CF-B189-73B6432A59AF}"/>
+    <hyperlink ref="J16" r:id="rId58" display="s/oralmed/q2-7.pdf" xr:uid="{A68C837D-0F06-46B9-AB49-E09C195FC530}"/>
+    <hyperlink ref="J17" r:id="rId59" display="s/oralmed/q2-8.pdf" xr:uid="{2321E89D-CB69-462D-9964-6C25EB7AEAA4}"/>
+    <hyperlink ref="J18" r:id="rId60" display="s/patho/q1-4.pdf" xr:uid="{CE8DA6DB-6471-4F90-B84F-F87C61FFE871}"/>
+    <hyperlink ref="J19" r:id="rId61" display="s/patho/q1-5.pdf" xr:uid="{66E9E42D-D25D-4FB0-BFF8-B1A1B93104E4}"/>
+    <hyperlink ref="J20" r:id="rId62" display="s/patho/q2-1.pdf" xr:uid="{87B48155-6DDA-40B2-8C52-A6D9B166918D}"/>
+    <hyperlink ref="J21" r:id="rId63" display="s/patho/q2-2.pdf" xr:uid="{F09113CF-9590-494A-B015-599ED70C50CE}"/>
+    <hyperlink ref="J22" r:id="rId64" display="s/patho/q2-3.pdf" xr:uid="{F4C43185-5E24-43CB-9507-703612C009E3}"/>
+    <hyperlink ref="J23" r:id="rId65" display="s/patho/q2-4.pdf" xr:uid="{81EE5A51-D63A-4A43-9CEF-509B911EE575}"/>
+    <hyperlink ref="J24" r:id="rId66" display="s/patho/q2-5.pdf" xr:uid="{139FF0F2-5979-490E-82D5-E00CB6860F6F}"/>
+    <hyperlink ref="J25" r:id="rId67" display="s/patho/q2-6.pdf" xr:uid="{25D22062-AF0D-47EF-A9A5-3BACFFF210C3}"/>
+    <hyperlink ref="K23" r:id="rId68" display="s/patho/q2-4-s.pdf" xr:uid="{39BB060C-89C3-4B0D-A976-7CBAFD3F4615}"/>
+    <hyperlink ref="K24" r:id="rId69" display="s/patho/q2-5-s.pdf" xr:uid="{CF5F919E-6520-400E-98C0-F7206B6A76A8}"/>
+    <hyperlink ref="K25" r:id="rId70" display="s/patho/q2-6-s.pdf" xr:uid="{F0E2FD58-909A-4E70-8C6E-21279A069011}"/>
+    <hyperlink ref="J26" r:id="rId71" display="s/dmmcp/q2-1.pdf" xr:uid="{714D86A3-6A83-4AA4-84CA-FD434330B65F}"/>
+    <hyperlink ref="J27" r:id="rId72" display="s/dmmcp/q2-2.pdf" xr:uid="{865F9CC8-D7FD-45E7-A2C5-D603195D8D12}"/>
+    <hyperlink ref="J28" r:id="rId73" display="s/dmmcp/q2-3.pdf" xr:uid="{D48C8024-D366-4332-AE37-63CC2D0C9C2E}"/>
+    <hyperlink ref="J29" r:id="rId74" display="s/zaid/q2-1.pdf" xr:uid="{2E5F2CC8-2B5A-48E7-8DA1-1FFAF77583E6}"/>
+    <hyperlink ref="J30" r:id="rId75" display="s/zaid/q2-2.pdf" xr:uid="{50DA946F-C45C-48D2-B43A-64C71FEEFAA2}"/>
+    <hyperlink ref="J31" r:id="rId76" display="..\..\..\..\AppData\Roaming\Microsoft\Excel\s\zaid\q2-3.pdf" xr:uid="{EC821051-3C8A-4C34-8B73-04E887E2D161}"/>
+    <hyperlink ref="J32" r:id="rId77" display="s/zaid/q2-4.pdf" xr:uid="{CC7B214B-DA56-4CF9-B392-C5B43D1BCE38}"/>
+    <hyperlink ref="J33" r:id="rId78" display="s/external/q2-1.pdf" xr:uid="{47C80ADF-3107-453D-A05D-B529F014503C}"/>
+    <hyperlink ref="J34" r:id="rId79" display="s/external/q2-2.pdf" xr:uid="{7C0324B2-EEA9-4267-B006-7BD2B45724E3}"/>
+    <hyperlink ref="J35" r:id="rId80" display="s/external/q2-3.pdf" xr:uid="{0A5A862E-D19B-4E42-BDC6-CEB0FF231367}"/>
+    <hyperlink ref="J36" r:id="rId81" display="s/external/q2-4.pdf" xr:uid="{D69E8240-569A-42CC-A32E-89E02D74F011}"/>
+    <hyperlink ref="J37" r:id="rId82" display="s/surgery/q1-2.pdf" xr:uid="{AFC3010D-B328-4AE4-BFC9-E135EAE94ABF}"/>
+    <hyperlink ref="J38" r:id="rId83" display="s/surgery/q1-3.pdf" xr:uid="{8B6D6FDE-C0B5-4CBF-86F6-5F0879FDDB49}"/>
+    <hyperlink ref="J39" r:id="rId84" display="s/surgery/q2-1.pdf" xr:uid="{D67F4CEF-3A56-47BD-997D-D2465342C223}"/>
+    <hyperlink ref="P6" r:id="rId85" display="a/endo/q2-5.pdf" xr:uid="{11039E3C-8E07-4647-81FF-EAC817A43E79}"/>
+    <hyperlink ref="P7" r:id="rId86" display="a/endo/q2-6.pdf" xr:uid="{14AB2DD5-EF0D-40F8-8D72-C1C6BC10EBBC}"/>
+    <hyperlink ref="P8" r:id="rId87" display="a/endo/q2-7.pdf" xr:uid="{6A97F3F8-2300-40CC-8DB9-8B2320C64F94}"/>
+    <hyperlink ref="P9" r:id="rId88" display="a/endo/q2-8.pdf" xr:uid="{17591F6D-FF88-4F17-A384-02FBC7BA1EC8}"/>
+    <hyperlink ref="P10" r:id="rId89" display="a/endo/q2-9.pdf" xr:uid="{1BBDA72D-C782-490A-9557-991EF8B8A0A3}"/>
+    <hyperlink ref="P11" r:id="rId90" display="a/endo/q2-10.pdf" xr:uid="{73EADDE6-C0C7-42E6-93C3-185CD2F04551}"/>
+    <hyperlink ref="P12" r:id="rId91" display="a/endo/q2-11.pdf" xr:uid="{8C9E59DD-BF0B-4FBD-B072-FC409DF23601}"/>
+    <hyperlink ref="P13" r:id="rId92" display="a/perio/q1-1.pdf" xr:uid="{52CF9E0A-307A-4519-9787-10F216E9B3E5}"/>
+    <hyperlink ref="P14" r:id="rId93" display="a\perio\q2-1.pdf" xr:uid="{13D11093-5CDE-4EA6-9C70-2B71086D946D}"/>
+    <hyperlink ref="P19" r:id="rId94" display="a/perio/q2-8.pdf" xr:uid="{095B5E0E-6608-4DE3-A713-A4876D1FBF2B}"/>
+    <hyperlink ref="P20" r:id="rId95" display="a/perio/q2-9.pdf" xr:uid="{DB6AB041-BCDF-457A-972B-54C1115D7CCF}"/>
+    <hyperlink ref="P22" r:id="rId96" display="a/perio/q2-11.pdf" xr:uid="{70941E71-F017-4760-BC54-8BCF24769F2A}"/>
+    <hyperlink ref="P23" r:id="rId97" display="a/perio/q2-12.pdf" xr:uid="{DB79B925-ABBE-4A09-993B-846DC0183403}"/>
+    <hyperlink ref="P24" r:id="rId98" display="a\perio\q2-13.pdf" xr:uid="{F893047E-B4A6-4AE9-9039-BCAE7ECA32AD}"/>
+    <hyperlink ref="P25" r:id="rId99" display="a\perio\q2-14.pdf" xr:uid="{130E062D-6032-4C4D-80C3-2C382F0D0634}"/>
+    <hyperlink ref="P26" r:id="rId100" display="a\perio\q2-15.pdf" xr:uid="{70D3A916-2548-48E9-BEE7-394BBAFCF3DC}"/>
+    <hyperlink ref="P27" r:id="rId101" display="a\perio\q2-16.pdf" xr:uid="{A505960F-6643-4A56-AB86-D418FDEC0368}"/>
+    <hyperlink ref="P28" r:id="rId102" display="a/perio/q2-17.pdf" xr:uid="{8A7C0AC5-8835-41EC-BBFE-553C59679DFC}"/>
+    <hyperlink ref="Q6" r:id="rId103" display="a/endo/q2-5-s.pdf" xr:uid="{D842AF67-7130-4EC4-BFA7-AD88A938CF32}"/>
+    <hyperlink ref="Q7" r:id="rId104" display="a/endo/q2-6-s.pdf" xr:uid="{B2598917-69FE-4E33-AFCD-645CCEB94366}"/>
+    <hyperlink ref="Q8" r:id="rId105" display="a/endo/q2-7-s.pdf" xr:uid="{6A2558D7-C99F-4997-AD8A-9AB79C7993F1}"/>
+    <hyperlink ref="Q9" r:id="rId106" display="a/endo/q2-8-s.pdf" xr:uid="{F1B1A125-D327-4C27-BAB3-925D39AB65DC}"/>
+    <hyperlink ref="Q10" r:id="rId107" display="a/endo/q2-9-s.pdf" xr:uid="{D75E385E-6729-43F4-82E9-616B4C9A610D}"/>
+    <hyperlink ref="Q11" r:id="rId108" display="a/endo/q2-10-s.pdf" xr:uid="{86F407CD-1C16-4232-9166-AC8A25F1A945}"/>
+    <hyperlink ref="Q12" r:id="rId109" display="a/endo/q2-11-s.pdf" xr:uid="{1B30B5CF-B174-4C6C-8AAB-29570FC4DE57}"/>
+    <hyperlink ref="P21" r:id="rId110" display="a\perio\q2-10.pdf" xr:uid="{1659E767-E432-4731-A3B3-C87169B99F90}"/>
+    <hyperlink ref="P15" r:id="rId111" display="a\perio\q2-2.pdf" xr:uid="{6EA29A84-EC7B-47D4-813F-DB17DE89DC6C}"/>
+    <hyperlink ref="P16" r:id="rId112" display="a\perio\q2-3.pdf" xr:uid="{49B50A62-409F-48AE-BA11-21E2F24C0833}"/>
+    <hyperlink ref="P17" r:id="rId113" display="Q2-4&amp;5" xr:uid="{4AD5D47E-8972-42E6-B8A5-74A4B2BB9371}"/>
+    <hyperlink ref="P18" r:id="rId114" display="a\perio\q2-5.pdf" xr:uid="{562E562D-25ED-4E22-8993-50D01AF4F1A0}"/>
+    <hyperlink ref="Q19" r:id="rId115" display="a/perio/q2-8-s.pdf" xr:uid="{FF55AC58-7C83-4B6C-BFE5-CA0A6D96C816}"/>
+    <hyperlink ref="Q20" r:id="rId116" display="a\perio\q2-9-s.pdf" xr:uid="{097A24E6-BA08-41CA-9201-99141F9E6D5B}"/>
+    <hyperlink ref="Q22" r:id="rId117" display="a\perio\q2-11-s.pdf" xr:uid="{A3C14473-D5A9-4FF9-B027-9BCCB3ED6363}"/>
+    <hyperlink ref="Q25" r:id="rId118" display="a\perio\q2-14-s.pdf" xr:uid="{C9BD1055-096A-4A65-BC9E-834A20B69CFB}"/>
+    <hyperlink ref="E47" r:id="rId119" display="b\pedo\q2-16-s.pdf" xr:uid="{C87E1529-665E-458A-AEDB-F4DEC4870F73}"/>
+    <hyperlink ref="E48" r:id="rId120" display="b/pedo/q2-17-s.pdf" xr:uid="{1FC3CBAD-CF41-4256-AB90-0F0099947599}"/>
+    <hyperlink ref="E11" r:id="rId121" display="b/ortho/q2-2-s.pdf" xr:uid="{C9893C35-194D-4259-8805-4D9D6C3ECACD}"/>
+    <hyperlink ref="E12" r:id="rId122" display="b/ortho/q2-3-s.pdf" xr:uid="{E44CBA97-B9A0-4D61-B364-B5D7A240F1AB}"/>
+    <hyperlink ref="E13" r:id="rId123" display="b/ortho/q2-4-s.pdf" xr:uid="{8DAF11BD-4065-44CE-895B-393E53E80B1E}"/>
+    <hyperlink ref="E14" r:id="rId124" display="b/ortho/q2-5-s.pdf" xr:uid="{7D4614BD-7BB9-4834-8625-675E2B8A733E}"/>
+    <hyperlink ref="D28" r:id="rId125" xr:uid="{0126183C-0C34-46F9-8B92-D16B670CEFB3}"/>
+    <hyperlink ref="K29" r:id="rId126" xr:uid="{4D424A24-DEB9-408C-AEF1-3F1EC4C2E01B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId120"/>
-  <drawing r:id="rId121"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId127"/>
+  <drawing r:id="rId128"/>
 </worksheet>
 </file>